--- a/data/trans_camb/P54_A_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>58,77</t>
+          <t>47,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58,65</t>
+          <t>54,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>57,63</t>
+          <t>60,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>66,89</t>
+          <t>68,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,96</t>
+          <t>54,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,27</t>
+          <t>62,1</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,63; 71,38</t>
+          <t>25,23; 66,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,37; 72,19</t>
+          <t>31,53; 73,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,39; 69,56</t>
+          <t>42,46; 74,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,58; 78,1</t>
+          <t>51,83; 80,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,16; 67,0</t>
+          <t>39,02; 66,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,91; 70,93</t>
+          <t>48,45; 74,39</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>586,07%</t>
+          <t>361,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>584,84%</t>
+          <t>422,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>328,98%</t>
+          <t>422,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>381,83%</t>
+          <t>479,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>410,68%</t>
+          <t>395,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>441,19%</t>
+          <t>451,36%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>232,95; 1712,97</t>
+          <t>86,59; 1654,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>220,36; 1761,88</t>
+          <t>94,84; 1842,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>164,96; 716,94</t>
+          <t>161,57; 1076,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>198,07; 824,37</t>
+          <t>197,39; 1139,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>251,7; 697,41</t>
+          <t>186,55; 860,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>271,77; 755,28</t>
+          <t>222,89; 977,03</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,61</t>
+          <t>36,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,14</t>
+          <t>40,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,29</t>
+          <t>60,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,75</t>
+          <t>63,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,84</t>
+          <t>48,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>48,1</t>
+          <t>52,02</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 56,31</t>
+          <t>1,03; 66,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,42; 62,59</t>
+          <t>8,5; 67,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,05; 67,82</t>
+          <t>42,93; 74,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,06; 65,03</t>
+          <t>47,22; 77,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,14; 57,07</t>
+          <t>27,44; 65,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,85; 59,52</t>
+          <t>29,55; 68,47</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>126,15%</t>
+          <t>108,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>149,26%</t>
+          <t>122,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>332,0%</t>
+          <t>608,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>322,71%</t>
+          <t>638,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>205,72%</t>
+          <t>221,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>215,9%</t>
+          <t>238,54%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 442,15</t>
+          <t>-4,33; 649,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,3; 443,82</t>
+          <t>12,12; 865,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>147,66; 677,43</t>
+          <t>221,4; 1722,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>148,65; 687,95</t>
+          <t>253,37; 1952,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,19; 372,85</t>
+          <t>52,89; 634,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,08; 405,05</t>
+          <t>57,72; 676,63</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>62,9</t>
+          <t>55,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54,83</t>
+          <t>52,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,51</t>
+          <t>57,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62,16</t>
+          <t>62,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,59</t>
+          <t>57,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,72</t>
+          <t>58,41</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,74; 73,66</t>
+          <t>39,48; 70,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,29; 65,65</t>
+          <t>35,31; 66,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,09; 67,99</t>
+          <t>45,69; 68,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52,18; 71,34</t>
+          <t>47,81; 72,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,72; 67,58</t>
+          <t>47,54; 66,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,36; 66,11</t>
+          <t>48,25; 66,71</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>509,22%</t>
+          <t>385,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>443,92%</t>
+          <t>365,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>451,75%</t>
+          <t>434,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>479,9%</t>
+          <t>464,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>477,76%</t>
+          <t>414,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>463,0%</t>
+          <t>423,8%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>250,46; 1025,82</t>
+          <t>163,37; 973,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>208,48; 855,35</t>
+          <t>141,21; 913,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>242,96; 862,93</t>
+          <t>197,08; 899,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>262,94; 920,95</t>
+          <t>195,97; 925,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>299,04; 742,11</t>
+          <t>247,52; 719,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>292,88; 733,52</t>
+          <t>246,33; 733,65</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>49,86</t>
+          <t>48,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>56,75</t>
+          <t>55,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>55,56</t>
+          <t>56,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>59,73</t>
+          <t>60,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>53,0</t>
+          <t>52,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,44</t>
+          <t>58,03</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,27; 59,46</t>
+          <t>35,09; 61,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>46,22; 67,32</t>
+          <t>42,59; 67,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,76; 63,54</t>
+          <t>44,16; 66,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,55; 67,66</t>
+          <t>48,37; 71,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,91; 59,42</t>
+          <t>43,46; 60,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,91; 65,08</t>
+          <t>49,85; 66,34</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>366,99%</t>
+          <t>335,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>417,68%</t>
+          <t>385,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>275,23%</t>
+          <t>310,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>295,9%</t>
+          <t>332,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>307,51%</t>
+          <t>319,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>339,11%</t>
+          <t>353,28%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>200,34; 677,63</t>
+          <t>164,57; 788,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>235,46; 757,76</t>
+          <t>190,73; 851,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>173,61; 428,94</t>
+          <t>169,75; 544,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>192,18; 447,0</t>
+          <t>186,91; 569,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>208,36; 427,08</t>
+          <t>201,85; 524,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>235,16; 473,14</t>
+          <t>232,29; 579,0</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>56,46</t>
+          <t>62,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>60,05</t>
+          <t>60,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>72,6</t>
+          <t>78,95</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73,33</t>
+          <t>74,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>64,21</t>
+          <t>69,48</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>66,4</t>
+          <t>66,15</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>42,73; 66,76</t>
+          <t>44,72; 74,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>46,4; 69,97</t>
+          <t>42,46; 73,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>62,22; 81,22</t>
+          <t>64,86; 89,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>63,42; 80,76</t>
+          <t>57,8; 85,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>56,29; 71,07</t>
+          <t>55,31; 77,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>58,3; 73,24</t>
+          <t>53,84; 75,17</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>699,52%</t>
+          <t>1443,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>744,02%</t>
+          <t>1395,31%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>589,11%</t>
+          <t>724,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>595,05%</t>
+          <t>679,91%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>634,3%</t>
+          <t>972,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>655,97%</t>
+          <t>925,87%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>322,04; 1591,71</t>
+          <t>466,65; 5437,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>358,04; 1662,58</t>
+          <t>456,01; 5401,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>326,27; 1131,56</t>
+          <t>280,54; 2098,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>319,99; 1135,18</t>
+          <t>251,69; 1913,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>382,14; 967,89</t>
+          <t>437,24; 2136,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>394,88; 1006,54</t>
+          <t>443,07; 2018,15</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>71,39</t>
+          <t>66,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>58,69</t>
+          <t>56,95</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>48,75</t>
+          <t>50,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>54,71</t>
+          <t>51,38</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>59,41</t>
+          <t>58,16</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>57,0</t>
+          <t>54,46</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>58,35; 80,79</t>
+          <t>44,91; 80,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>45,86; 70,76</t>
+          <t>37,51; 72,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>29,91; 64,13</t>
+          <t>29,98; 67,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>36,6; 67,76</t>
+          <t>30,13; 68,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>47,36; 68,19</t>
+          <t>42,46; 68,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>45,77; 66,83</t>
+          <t>39,81; 67,38</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>664,21%</t>
+          <t>525,46%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>546,05%</t>
+          <t>449,82%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>169,14%</t>
+          <t>181,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>189,79%</t>
+          <t>185,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>294,2%</t>
+          <t>286,92%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>282,29%</t>
+          <t>268,66%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>308,26; 1462,9</t>
+          <t>192,55; 1532,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>247,76; 1217,92</t>
+          <t>160,92; 1372,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>65,04; 337,72</t>
+          <t>68,2; 422,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>81,21; 367,05</t>
+          <t>64,09; 436,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>158,98; 476,26</t>
+          <t>141,29; 534,15</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>155,59; 486,46</t>
+          <t>141,19; 612,21</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1537,27 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>55,54</t>
+          <t>52,15</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>55,07</t>
+          <t>53,37</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>57,92</t>
+          <t>59,88</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>61,64</t>
+          <t>63,05</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>56,79</t>
+          <t>56,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>48,58; 61,04</t>
+          <t>41,97; 59,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>48,08; 60,63</t>
+          <t>43,6; 61,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>52,9; 62,52</t>
+          <t>54,1; 65,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>56,35; 65,75</t>
+          <t>56,62; 68,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>52,95; 60,82</t>
+          <t>50,47; 60,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>54,7; 62,17</t>
+          <t>52,84; 62,84</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>399,51%</t>
+          <t>332,71%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>396,13%</t>
+          <t>340,51%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>326,95%</t>
+          <t>390,69%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>347,94%</t>
+          <t>411,41%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>356,62%</t>
+          <t>363,44%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>367,0%</t>
+          <t>377,32%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>259,25; 576,0</t>
+          <t>170,3; 519,36</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>254,02; 575,08</t>
+          <t>174,65; 552,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>247,0; 414,44</t>
+          <t>284,38; 534,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>264,99; 433,6</t>
+          <t>295,47; 558,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>282,36; 440,11</t>
+          <t>256,89; 485,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>294,58; 453,15</t>
+          <t>260,88; 494,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
